--- a/public/upload/data_tieuphan/NST_2019/thietbi/TAR-1-18-NPE-1901_ B_tk2019.xlsx
+++ b/public/upload/data_tieuphan/NST_2019/thietbi/TAR-1-18-NPE-1901_ B_tk2019.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_QUALIFICATION\1_REPORT\Non - Betalactam\TIỂU PHÂN_NST_2019\5 - kết quả phân tích xu hướng cho năm 2019 in\TK năm 2019\Báo cáo TK TP thiết bị năm_2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\pmp\public\upload\data_tieuphan\NST_2019\thietbi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="10548"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="10545"/>
   </bookViews>
   <sheets>
     <sheet name="BXTP_NG-BXTP-01 (29090)" sheetId="20" r:id="rId1"/>
@@ -881,17 +881,17 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -904,6 +904,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -926,17 +929,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1173,8 +1173,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-890026944"/>
-        <c:axId val="-890016608"/>
+        <c:axId val="110318576"/>
+        <c:axId val="110322496"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1797,11 +1797,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-890026944"/>
-        <c:axId val="-890016608"/>
+        <c:axId val="110318576"/>
+        <c:axId val="110322496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-890026944"/>
+        <c:axId val="110318576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1854,7 +1854,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-890016608"/>
+        <c:crossAx val="110322496"/>
         <c:crossesAt val="0"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -1862,7 +1862,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-890016608"/>
+        <c:axId val="110322496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4000"/>
@@ -1921,7 +1921,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-890026944"/>
+        <c:crossAx val="110318576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1000"/>
@@ -2106,11 +2106,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-890013344"/>
-        <c:axId val="-890024768"/>
+        <c:axId val="196113960"/>
+        <c:axId val="196115528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-890013344"/>
+        <c:axId val="196113960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2176,7 +2176,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-890024768"/>
+        <c:crossAx val="196115528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2186,7 +2186,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-890024768"/>
+        <c:axId val="196115528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2231,7 +2231,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-890013344"/>
+        <c:crossAx val="196113960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2415,11 +2415,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-890012800"/>
-        <c:axId val="-890024224"/>
+        <c:axId val="196112392"/>
+        <c:axId val="196117096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-890012800"/>
+        <c:axId val="196112392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2436,7 +2436,7 @@
             <a:prstDash val="solid"/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-890024224"/>
+        <c:crossAx val="196117096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2445,7 +2445,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-890024224"/>
+        <c:axId val="196117096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2490,7 +2490,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-890012800"/>
+        <c:crossAx val="196112392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2657,11 +2657,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-890023680"/>
-        <c:axId val="-890017696"/>
+        <c:axId val="196113568"/>
+        <c:axId val="196116312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-890023680"/>
+        <c:axId val="196113568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2727,7 +2727,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-890017696"/>
+        <c:crossAx val="196116312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2737,7 +2737,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-890017696"/>
+        <c:axId val="196116312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2782,7 +2782,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-890023680"/>
+        <c:crossAx val="196113568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3061,11 +3061,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-890019328"/>
-        <c:axId val="-890020960"/>
+        <c:axId val="196116704"/>
+        <c:axId val="196113176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-890019328"/>
+        <c:axId val="196116704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3131,7 +3131,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-890020960"/>
+        <c:crossAx val="196113176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3141,7 +3141,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-890020960"/>
+        <c:axId val="196113176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3186,7 +3186,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-890019328"/>
+        <c:crossAx val="196116704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3375,11 +3375,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-891443024"/>
-        <c:axId val="-857272352"/>
+        <c:axId val="196118272"/>
+        <c:axId val="196119056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-891443024"/>
+        <c:axId val="196118272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3414,7 +3414,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-857272352"/>
+        <c:crossAx val="196119056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3424,7 +3424,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-857272352"/>
+        <c:axId val="196119056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3452,7 +3452,7 @@
             <a:prstDash val="solid"/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-891443024"/>
+        <c:crossAx val="196118272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3609,11 +3609,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-857270720"/>
-        <c:axId val="-857269632"/>
+        <c:axId val="196112784"/>
+        <c:axId val="195196312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-857270720"/>
+        <c:axId val="196112784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3679,7 +3679,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-857269632"/>
+        <c:crossAx val="195196312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3689,7 +3689,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-857269632"/>
+        <c:axId val="195196312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3734,7 +3734,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-857270720"/>
+        <c:crossAx val="196112784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3918,11 +3918,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-857271264"/>
-        <c:axId val="-857273984"/>
+        <c:axId val="195197096"/>
+        <c:axId val="195195136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-857271264"/>
+        <c:axId val="195197096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3939,7 +3939,7 @@
             <a:prstDash val="solid"/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-857273984"/>
+        <c:crossAx val="195195136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3948,7 +3948,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-857273984"/>
+        <c:axId val="195195136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3993,7 +3993,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-857271264"/>
+        <c:crossAx val="195197096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4160,11 +4160,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-857262016"/>
-        <c:axId val="-857270176"/>
+        <c:axId val="196435848"/>
+        <c:axId val="196435456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-857262016"/>
+        <c:axId val="196435848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4230,7 +4230,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-857270176"/>
+        <c:crossAx val="196435456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4240,7 +4240,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-857270176"/>
+        <c:axId val="196435456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4285,7 +4285,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-857262016"/>
+        <c:crossAx val="196435848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4564,11 +4564,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-857262560"/>
-        <c:axId val="-857263104"/>
+        <c:axId val="196433496"/>
+        <c:axId val="196433888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-857262560"/>
+        <c:axId val="196433496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4634,7 +4634,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-857263104"/>
+        <c:crossAx val="196433888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4644,7 +4644,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-857263104"/>
+        <c:axId val="196433888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4689,7 +4689,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-857262560"/>
+        <c:crossAx val="196433496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4878,11 +4878,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-857275616"/>
-        <c:axId val="-857261472"/>
+        <c:axId val="196434280"/>
+        <c:axId val="196434672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-857275616"/>
+        <c:axId val="196434280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4917,7 +4917,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-857261472"/>
+        <c:crossAx val="196434672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4927,7 +4927,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-857261472"/>
+        <c:axId val="196434672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4955,7 +4955,7 @@
             <a:prstDash val="solid"/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-857275616"/>
+        <c:crossAx val="196434280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5149,11 +5149,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-890011712"/>
-        <c:axId val="-890022592"/>
+        <c:axId val="110315440"/>
+        <c:axId val="110317400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-890011712"/>
+        <c:axId val="110315440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5219,7 +5219,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-890022592"/>
+        <c:crossAx val="110317400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5229,7 +5229,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-890022592"/>
+        <c:axId val="110317400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5274,7 +5274,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-890011712"/>
+        <c:crossAx val="110315440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5463,11 +5463,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-857271808"/>
-        <c:axId val="-857266912"/>
+        <c:axId val="196431928"/>
+        <c:axId val="196436240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-857271808"/>
+        <c:axId val="196431928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5533,7 +5533,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-857266912"/>
+        <c:crossAx val="196436240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5543,7 +5543,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-857266912"/>
+        <c:axId val="196436240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5588,7 +5588,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-857271808"/>
+        <c:crossAx val="196431928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5772,11 +5772,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-857266368"/>
-        <c:axId val="-857268544"/>
+        <c:axId val="196432712"/>
+        <c:axId val="196436632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-857266368"/>
+        <c:axId val="196432712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5793,7 +5793,7 @@
             <a:prstDash val="solid"/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-857268544"/>
+        <c:crossAx val="196436632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5802,7 +5802,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-857268544"/>
+        <c:axId val="196436632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5847,7 +5847,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-857266368"/>
+        <c:crossAx val="196432712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6014,11 +6014,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-857268000"/>
-        <c:axId val="-857269088"/>
+        <c:axId val="196437416"/>
+        <c:axId val="196431536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-857268000"/>
+        <c:axId val="196437416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6084,7 +6084,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-857269088"/>
+        <c:crossAx val="196431536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6094,7 +6094,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-857269088"/>
+        <c:axId val="196431536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6139,7 +6139,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-857268000"/>
+        <c:crossAx val="196437416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6418,11 +6418,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-857276704"/>
-        <c:axId val="-857276160"/>
+        <c:axId val="196438592"/>
+        <c:axId val="196438984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-857276704"/>
+        <c:axId val="196438592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6488,7 +6488,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-857276160"/>
+        <c:crossAx val="196438984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6498,7 +6498,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-857276160"/>
+        <c:axId val="196438984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6543,7 +6543,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-857276704"/>
+        <c:crossAx val="196438592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6732,11 +6732,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-857267456"/>
-        <c:axId val="-857265824"/>
+        <c:axId val="197027728"/>
+        <c:axId val="197023416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-857267456"/>
+        <c:axId val="197027728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6802,7 +6802,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-857265824"/>
+        <c:crossAx val="197023416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6812,7 +6812,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-857265824"/>
+        <c:axId val="197023416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6857,7 +6857,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-857267456"/>
+        <c:crossAx val="197027728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7056,11 +7056,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-857275072"/>
-        <c:axId val="-857274528"/>
+        <c:axId val="197023024"/>
+        <c:axId val="197024200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-857275072"/>
+        <c:axId val="197023024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7126,7 +7126,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-857274528"/>
+        <c:crossAx val="197024200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7136,7 +7136,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-857274528"/>
+        <c:axId val="197024200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7181,7 +7181,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-857275072"/>
+        <c:crossAx val="197023024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7460,11 +7460,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-857273440"/>
-        <c:axId val="-857272896"/>
+        <c:axId val="197022632"/>
+        <c:axId val="197026552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-857273440"/>
+        <c:axId val="197022632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7530,7 +7530,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-857272896"/>
+        <c:crossAx val="197026552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7540,7 +7540,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-857272896"/>
+        <c:axId val="197026552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7585,7 +7585,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-857273440"/>
+        <c:crossAx val="197022632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7774,11 +7774,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-857265280"/>
-        <c:axId val="-857264736"/>
+        <c:axId val="197020672"/>
+        <c:axId val="197021456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-857265280"/>
+        <c:axId val="197020672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7844,7 +7844,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-857264736"/>
+        <c:crossAx val="197021456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7854,7 +7854,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-857264736"/>
+        <c:axId val="197021456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7899,7 +7899,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-857265280"/>
+        <c:crossAx val="197020672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8098,11 +8098,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-857264192"/>
-        <c:axId val="-857263648"/>
+        <c:axId val="197023808"/>
+        <c:axId val="197024592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-857264192"/>
+        <c:axId val="197023808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8168,7 +8168,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-857263648"/>
+        <c:crossAx val="197024592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8178,7 +8178,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-857263648"/>
+        <c:axId val="197024592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8223,7 +8223,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-857264192"/>
+        <c:crossAx val="197023808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8502,11 +8502,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-856046944"/>
-        <c:axId val="-856060000"/>
+        <c:axId val="197024984"/>
+        <c:axId val="197026944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-856046944"/>
+        <c:axId val="197024984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8572,7 +8572,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-856060000"/>
+        <c:crossAx val="197026944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8582,7 +8582,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-856060000"/>
+        <c:axId val="197026944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8627,7 +8627,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-856046944"/>
+        <c:crossAx val="197024984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8930,11 +8930,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-890013888"/>
-        <c:axId val="-890018784"/>
+        <c:axId val="110318968"/>
+        <c:axId val="110320144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-890013888"/>
+        <c:axId val="110318968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9000,12 +9000,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-890018784"/>
+        <c:crossAx val="110320144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-890018784"/>
+        <c:axId val="110320144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9081,7 +9081,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-890013888"/>
+        <c:crossAx val="110318968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9270,11 +9270,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-856052928"/>
-        <c:axId val="-856058912"/>
+        <c:axId val="197025768"/>
+        <c:axId val="197366288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-856052928"/>
+        <c:axId val="197025768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9340,7 +9340,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-856058912"/>
+        <c:crossAx val="197366288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9350,7 +9350,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-856058912"/>
+        <c:axId val="197366288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9395,7 +9395,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-856052928"/>
+        <c:crossAx val="197025768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9640,8 +9640,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-856055104"/>
-        <c:axId val="-856050752"/>
+        <c:axId val="197361976"/>
+        <c:axId val="197367856"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -10267,11 +10267,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-856055104"/>
-        <c:axId val="-856050752"/>
+        <c:axId val="197361976"/>
+        <c:axId val="197367856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-856055104"/>
+        <c:axId val="197361976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10324,7 +10324,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-856050752"/>
+        <c:crossAx val="197367856"/>
         <c:crossesAt val="0"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -10332,7 +10332,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-856050752"/>
+        <c:axId val="197367856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
@@ -10391,7 +10391,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-856055104"/>
+        <c:crossAx val="197361976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5"/>
@@ -10603,11 +10603,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-890019872"/>
-        <c:axId val="-890020416"/>
+        <c:axId val="195193960"/>
+        <c:axId val="195197488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-890019872"/>
+        <c:axId val="195193960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10642,7 +10642,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-890020416"/>
+        <c:crossAx val="195197488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10652,7 +10652,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-890020416"/>
+        <c:axId val="195197488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10680,7 +10680,7 @@
             <a:prstDash val="solid"/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-890019872"/>
+        <c:crossAx val="195193960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10864,11 +10864,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-890021504"/>
-        <c:axId val="-890022048"/>
+        <c:axId val="195195528"/>
+        <c:axId val="195190824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-890021504"/>
+        <c:axId val="195195528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10934,7 +10934,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-890022048"/>
+        <c:crossAx val="195190824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10944,7 +10944,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-890022048"/>
+        <c:axId val="195190824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10989,7 +10989,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-890021504"/>
+        <c:crossAx val="195195528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11200,11 +11200,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-890023136"/>
-        <c:axId val="-890014432"/>
+        <c:axId val="195191216"/>
+        <c:axId val="195191608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-890023136"/>
+        <c:axId val="195191216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11239,7 +11239,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-890014432"/>
+        <c:crossAx val="195191608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11249,7 +11249,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-890014432"/>
+        <c:axId val="195191608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11294,7 +11294,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-890023136"/>
+        <c:crossAx val="195191216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11505,11 +11505,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-890025312"/>
-        <c:axId val="-890012256"/>
+        <c:axId val="195197880"/>
+        <c:axId val="195192000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-890025312"/>
+        <c:axId val="195197880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11527,7 +11527,7 @@
             <a:prstDash val="solid"/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-890012256"/>
+        <c:crossAx val="195192000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11536,7 +11536,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-890012256"/>
+        <c:axId val="195192000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11581,7 +11581,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-890025312"/>
+        <c:crossAx val="195197880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11748,11 +11748,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-890015520"/>
-        <c:axId val="-890026400"/>
+        <c:axId val="195192784"/>
+        <c:axId val="195193176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-890015520"/>
+        <c:axId val="195192784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11818,7 +11818,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-890026400"/>
+        <c:crossAx val="195193176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11828,7 +11828,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-890026400"/>
+        <c:axId val="195193176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11873,7 +11873,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-890015520"/>
+        <c:crossAx val="195192784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12062,11 +12062,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-890025856"/>
-        <c:axId val="-890014976"/>
+        <c:axId val="196118664"/>
+        <c:axId val="196119840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-890025856"/>
+        <c:axId val="196118664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12101,7 +12101,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-890014976"/>
+        <c:crossAx val="196119840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12111,7 +12111,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-890014976"/>
+        <c:axId val="196119840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12139,7 +12139,7 @@
             <a:prstDash val="solid"/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-890025856"/>
+        <c:crossAx val="196118664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13544,37 +13544,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH84"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C48" zoomScale="80" zoomScaleNormal="60" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="80" zoomScaleNormal="60" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" style="11" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="37.33203125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="20.5546875" style="11" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" style="4" customWidth="1"/>
-    <col min="6" max="9" width="11.5546875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="2.6640625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="8.44140625" style="5" customWidth="1"/>
-    <col min="12" max="12" width="9.6640625" style="5" customWidth="1"/>
-    <col min="13" max="14" width="8.44140625" style="5" customWidth="1"/>
-    <col min="15" max="15" width="10.44140625" style="5" customWidth="1"/>
-    <col min="16" max="16" width="10.6640625" style="11" customWidth="1"/>
-    <col min="17" max="17" width="10.6640625" style="4" customWidth="1"/>
-    <col min="18" max="18" width="13.88671875" style="4" customWidth="1"/>
-    <col min="19" max="16384" width="9.109375" style="4"/>
+    <col min="1" max="1" width="6.5703125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="37.28515625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" style="4" customWidth="1"/>
+    <col min="6" max="9" width="11.5703125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="2.7109375" style="5" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" style="5" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" style="5" customWidth="1"/>
+    <col min="13" max="14" width="8.42578125" style="5" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" style="5" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" style="11" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" style="4" customWidth="1"/>
+    <col min="18" max="18" width="13.85546875" style="4" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="95" t="s">
+    <row r="1" spans="1:26" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="109" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
       <c r="F1" s="73"/>
       <c r="G1" s="73"/>
       <c r="H1" s="73"/>
@@ -13593,14 +13593,14 @@
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
     </row>
-    <row r="2" spans="1:26" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="96" t="s">
+    <row r="2" spans="1:26" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="110" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
       <c r="F2" s="74"/>
       <c r="G2" s="74"/>
       <c r="H2" s="74"/>
@@ -13617,7 +13617,7 @@
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
     </row>
-    <row r="3" spans="1:26" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="63"/>
@@ -13639,16 +13639,16 @@
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
     </row>
-    <row r="4" spans="1:26" s="18" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="94" t="s">
+    <row r="4" spans="1:26" s="18" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="94"/>
-      <c r="C4" s="97" t="s">
+      <c r="B4" s="101"/>
+      <c r="C4" s="111" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
       <c r="F4" s="75"/>
       <c r="G4" s="75"/>
       <c r="H4" s="75"/>
@@ -13665,11 +13665,11 @@
       <c r="O4" s="15"/>
       <c r="P4" s="15"/>
     </row>
-    <row r="5" spans="1:26" s="18" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="94" t="s">
+    <row r="5" spans="1:26" s="18" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="94"/>
+      <c r="B5" s="101"/>
       <c r="C5" s="23" t="s">
         <v>54</v>
       </c>
@@ -13695,11 +13695,11 @@
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
     </row>
-    <row r="6" spans="1:26" s="18" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="94" t="s">
+    <row r="6" spans="1:26" s="18" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="94"/>
+      <c r="B6" s="101"/>
       <c r="C6" s="23" t="s">
         <v>55</v>
       </c>
@@ -13723,11 +13723,11 @@
       <c r="O6" s="15"/>
       <c r="P6" s="15"/>
     </row>
-    <row r="7" spans="1:26" s="18" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="94" t="s">
+    <row r="7" spans="1:26" s="18" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="94"/>
+      <c r="B7" s="101"/>
       <c r="C7" s="23" t="s">
         <v>59</v>
       </c>
@@ -13749,11 +13749,11 @@
       <c r="O7" s="105"/>
       <c r="P7" s="15"/>
     </row>
-    <row r="8" spans="1:26" s="18" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="94" t="s">
+    <row r="8" spans="1:26" s="18" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="94"/>
+      <c r="B8" s="101"/>
       <c r="C8" s="23" t="s">
         <v>32</v>
       </c>
@@ -13775,7 +13775,7 @@
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
     </row>
-    <row r="9" spans="1:26" s="18" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" s="18" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="102" t="s">
         <v>12</v>
       </c>
@@ -13803,7 +13803,7 @@
       <c r="O9" s="15"/>
       <c r="P9" s="15"/>
     </row>
-    <row r="10" spans="1:26" s="18" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" s="18" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="102" t="s">
         <v>13</v>
       </c>
@@ -13829,11 +13829,11 @@
       <c r="O10" s="15"/>
       <c r="P10" s="15"/>
     </row>
-    <row r="11" spans="1:26" s="18" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="94" t="s">
+    <row r="11" spans="1:26" s="18" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="94"/>
+      <c r="B11" s="101"/>
       <c r="C11" s="70" t="s">
         <v>64</v>
       </c>
@@ -13855,7 +13855,7 @@
       <c r="O11" s="15"/>
       <c r="P11" s="15"/>
     </row>
-    <row r="12" spans="1:26" s="18" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" s="18" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="103"/>
       <c r="B12" s="103"/>
       <c r="C12" s="103"/>
@@ -13873,7 +13873,7 @@
       <c r="O12" s="15"/>
       <c r="P12" s="15"/>
     </row>
-    <row r="13" spans="1:26" s="18" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" s="18" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="106"/>
       <c r="B13" s="106"/>
       <c r="C13" s="64" t="s">
@@ -13883,8 +13883,12 @@
         <v>53</v>
       </c>
       <c r="E13" s="108"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
+      <c r="F13" s="63">
+        <v>0.5</v>
+      </c>
+      <c r="G13" s="63">
+        <v>5</v>
+      </c>
       <c r="H13" s="63"/>
       <c r="I13" s="63"/>
       <c r="J13" s="7"/>
@@ -13906,16 +13910,16 @@
       </c>
       <c r="Q13" s="104"/>
     </row>
-    <row r="14" spans="1:26" s="15" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" s="15" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="106"/>
       <c r="B14" s="106"/>
       <c r="C14" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="98" t="s">
+      <c r="D14" s="97" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="99"/>
+      <c r="E14" s="98"/>
       <c r="F14" s="79" t="s">
         <v>68</v>
       </c>
@@ -13934,10 +13938,10 @@
       </c>
       <c r="N14" s="107"/>
       <c r="O14" s="22"/>
-      <c r="P14" s="100" t="s">
+      <c r="P14" s="99" t="s">
         <v>47</v>
       </c>
-      <c r="Q14" s="101"/>
+      <c r="Q14" s="100"/>
       <c r="R14" s="22"/>
       <c r="S14" s="22"/>
       <c r="T14" s="22"/>
@@ -13948,7 +13952,7 @@
       <c r="Y14" s="22"/>
       <c r="Z14" s="22"/>
     </row>
-    <row r="15" spans="1:26" s="22" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" s="22" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="24">
         <v>1</v>
       </c>
@@ -13981,7 +13985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:26" s="22" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" s="22" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="24">
         <v>2</v>
       </c>
@@ -14019,7 +14023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" s="22" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" s="22" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="24">
         <v>3</v>
       </c>
@@ -14057,7 +14061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17" s="22" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" s="22" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="24">
         <v>4</v>
       </c>
@@ -14091,7 +14095,7 @@
       <c r="P18" s="28"/>
       <c r="Q18" s="28"/>
     </row>
-    <row r="19" spans="1:17" s="22" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" s="22" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="24">
         <v>5</v>
       </c>
@@ -14125,7 +14129,7 @@
       <c r="P19" s="28"/>
       <c r="Q19" s="28"/>
     </row>
-    <row r="20" spans="1:17" s="22" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" s="22" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="24">
         <v>6</v>
       </c>
@@ -14159,7 +14163,7 @@
       <c r="P20" s="28"/>
       <c r="Q20" s="28"/>
     </row>
-    <row r="21" spans="1:17" s="22" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" s="22" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24">
         <v>7</v>
       </c>
@@ -14193,7 +14197,7 @@
       <c r="P21" s="28"/>
       <c r="Q21" s="28"/>
     </row>
-    <row r="22" spans="1:17" s="22" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" s="22" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="24">
         <v>8</v>
       </c>
@@ -14227,7 +14231,7 @@
       <c r="P22" s="28"/>
       <c r="Q22" s="28"/>
     </row>
-    <row r="23" spans="1:17" s="22" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" s="22" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="24">
         <v>9</v>
       </c>
@@ -14261,7 +14265,7 @@
       <c r="P23" s="28"/>
       <c r="Q23" s="28"/>
     </row>
-    <row r="24" spans="1:17" s="22" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" s="22" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="24">
         <v>10</v>
       </c>
@@ -14295,7 +14299,7 @@
       <c r="P24" s="28"/>
       <c r="Q24" s="28"/>
     </row>
-    <row r="25" spans="1:17" s="22" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" s="22" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="24">
         <v>11</v>
       </c>
@@ -14329,7 +14333,7 @@
       <c r="P25" s="28"/>
       <c r="Q25" s="28"/>
     </row>
-    <row r="26" spans="1:17" s="90" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" s="90" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="83"/>
       <c r="B26" s="84"/>
       <c r="C26" s="85"/>
@@ -14359,7 +14363,7 @@
       <c r="P26" s="91"/>
       <c r="Q26" s="91"/>
     </row>
-    <row r="27" spans="1:17" s="22" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" s="22" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="24"/>
       <c r="B27" s="65">
         <v>43493</v>
@@ -14391,7 +14395,7 @@
       <c r="P27" s="28"/>
       <c r="Q27" s="28"/>
     </row>
-    <row r="28" spans="1:17" s="22" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" s="22" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="24"/>
       <c r="B28" s="65">
         <v>43523</v>
@@ -14423,7 +14427,7 @@
       <c r="P28" s="28"/>
       <c r="Q28" s="28"/>
     </row>
-    <row r="29" spans="1:17" s="22" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" s="22" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="24"/>
       <c r="B29" s="65">
         <v>43553</v>
@@ -14455,7 +14459,7 @@
       <c r="P29" s="28"/>
       <c r="Q29" s="28"/>
     </row>
-    <row r="30" spans="1:17" s="22" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" s="22" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="24"/>
       <c r="B30" s="65">
         <v>43581</v>
@@ -14487,7 +14491,7 @@
       <c r="P30" s="28"/>
       <c r="Q30" s="28"/>
     </row>
-    <row r="31" spans="1:17" s="22" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" s="22" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="24"/>
       <c r="B31" s="65">
         <v>43612</v>
@@ -14519,7 +14523,7 @@
       <c r="P31" s="28"/>
       <c r="Q31" s="28"/>
     </row>
-    <row r="32" spans="1:17" s="22" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" s="22" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="24"/>
       <c r="B32" s="65">
         <v>43644</v>
@@ -14551,7 +14555,7 @@
       <c r="P32" s="28"/>
       <c r="Q32" s="28"/>
     </row>
-    <row r="33" spans="1:19" s="22" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" s="22" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="24"/>
       <c r="B33" s="65">
         <v>43676</v>
@@ -14583,7 +14587,7 @@
       <c r="P33" s="28"/>
       <c r="Q33" s="28"/>
     </row>
-    <row r="34" spans="1:19" s="22" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" s="22" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="24"/>
       <c r="B34" s="65">
         <v>43707</v>
@@ -14613,7 +14617,7 @@
       <c r="P34" s="28"/>
       <c r="Q34" s="28"/>
     </row>
-    <row r="35" spans="1:19" s="22" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" s="22" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="24"/>
       <c r="B35" s="67">
         <v>43735</v>
@@ -14640,7 +14644,7 @@
       <c r="P35" s="28"/>
       <c r="Q35" s="28"/>
     </row>
-    <row r="36" spans="1:19" s="22" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" s="22" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="24">
         <v>5</v>
       </c>
@@ -14669,7 +14673,7 @@
       <c r="P36" s="28"/>
       <c r="Q36" s="28"/>
     </row>
-    <row r="37" spans="1:19" s="22" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" s="22" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="24">
         <v>6</v>
       </c>
@@ -14698,7 +14702,7 @@
       <c r="P37" s="28"/>
       <c r="Q37" s="28"/>
     </row>
-    <row r="38" spans="1:19" s="22" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" s="22" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="24">
         <v>7</v>
       </c>
@@ -14728,7 +14732,7 @@
       <c r="P38" s="28"/>
       <c r="Q38" s="28"/>
     </row>
-    <row r="39" spans="1:19" s="22" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" s="22" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="24" t="s">
         <v>0</v>
       </c>
@@ -14762,7 +14766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:19" s="22" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" s="22" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="24" t="s">
         <v>70</v>
       </c>
@@ -14802,7 +14806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:19" s="22" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" s="22" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="24" t="s">
         <v>69</v>
       </c>
@@ -14842,7 +14846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:19" s="22" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" s="22" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="24" t="s">
         <v>3</v>
       </c>
@@ -14876,7 +14880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:19" s="22" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" s="22" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="24" t="s">
         <v>4</v>
       </c>
@@ -14910,7 +14914,7 @@
         <v>NA</v>
       </c>
     </row>
-    <row r="44" spans="1:19" s="22" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" s="22" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="45" t="str">
         <f>"Kết quả của 6 tháng trước đó"</f>
         <v>Kết quả của 6 tháng trước đó</v>
@@ -14920,7 +14924,7 @@
       <c r="D44" s="34"/>
       <c r="J44" s="30"/>
     </row>
-    <row r="45" spans="1:19" s="22" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" s="22" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="24" t="s">
         <v>0</v>
       </c>
@@ -14937,7 +14941,7 @@
       <c r="I45" s="80"/>
       <c r="J45" s="29"/>
     </row>
-    <row r="46" spans="1:19" s="22" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" s="22" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="24" t="s">
         <v>70</v>
       </c>
@@ -14963,7 +14967,7 @@
       <c r="O46" s="35"/>
       <c r="P46" s="35"/>
     </row>
-    <row r="47" spans="1:19" s="22" customFormat="1" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" s="22" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="24" t="s">
         <v>69</v>
       </c>
@@ -14987,7 +14991,7 @@
       <c r="O47" s="35"/>
       <c r="P47" s="35"/>
     </row>
-    <row r="48" spans="1:19" s="22" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" s="22" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="24" t="s">
         <v>3</v>
       </c>
@@ -15018,7 +15022,7 @@
       <c r="R48" s="35"/>
       <c r="S48" s="35"/>
     </row>
-    <row r="49" spans="1:26" s="22" customFormat="1" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:26" s="22" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="24" t="s">
         <v>4</v>
       </c>
@@ -15051,7 +15055,7 @@
       <c r="R49" s="35"/>
       <c r="S49" s="35"/>
     </row>
-    <row r="50" spans="1:26" s="22" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:26" s="22" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="34"/>
       <c r="C50" s="34"/>
       <c r="D50" s="34"/>
@@ -15075,7 +15079,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:26" s="22" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" s="22" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="38"/>
       <c r="C51" s="34"/>
       <c r="D51" s="34"/>
@@ -15101,7 +15105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:26" s="22" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" s="22" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="34"/>
       <c r="C52" s="34"/>
       <c r="D52" s="34"/>
@@ -15125,7 +15129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:26" s="22" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" s="22" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="34"/>
       <c r="C53" s="34"/>
       <c r="D53" s="34"/>
@@ -15149,7 +15153,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:26" s="22" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" s="22" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="34"/>
       <c r="C54" s="34"/>
       <c r="D54" s="34"/>
@@ -15171,7 +15175,7 @@
       </c>
       <c r="S54" s="37"/>
     </row>
-    <row r="55" spans="1:26" s="22" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" s="22" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="34"/>
       <c r="C55" s="34"/>
       <c r="D55" s="34"/>
@@ -15193,7 +15197,7 @@
       </c>
       <c r="S55" s="37"/>
     </row>
-    <row r="56" spans="1:26" s="22" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" s="22" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="34"/>
       <c r="C56" s="34"/>
       <c r="D56" s="34"/>
@@ -15215,7 +15219,7 @@
       </c>
       <c r="S56" s="37"/>
     </row>
-    <row r="57" spans="1:26" s="22" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" s="22" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="34"/>
       <c r="C57" s="34"/>
       <c r="D57" s="34"/>
@@ -15237,7 +15241,7 @@
       </c>
       <c r="S57" s="37"/>
     </row>
-    <row r="58" spans="1:26" s="22" customFormat="1" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:26" s="22" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="34"/>
       <c r="C58" s="34"/>
       <c r="D58" s="34"/>
@@ -15259,7 +15263,7 @@
       </c>
       <c r="S58" s="37"/>
     </row>
-    <row r="59" spans="1:26" s="22" customFormat="1" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:26" s="22" customFormat="1" ht="34.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="34"/>
       <c r="C59" s="34"/>
       <c r="D59" s="34"/>
@@ -15275,15 +15279,15 @@
       </c>
       <c r="S59" s="37"/>
     </row>
-    <row r="60" spans="1:26" s="41" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="110" t="str">
+    <row r="60" spans="1:26" s="41" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="95" t="str">
         <f>" Hình 1: Biểu đồ xu hướng tiểu phân ≥ 0,5 µm "&amp;$C$6&amp;" ("&amp;$E$6&amp;") trong 6 tháng"</f>
         <v xml:space="preserve"> Hình 1: Biểu đồ xu hướng tiểu phân ≥ 0,5 µm Buồng xếp trang phục (NG-BXTP-01) trong 6 tháng</v>
       </c>
-      <c r="B60" s="110"/>
-      <c r="C60" s="110"/>
-      <c r="D60" s="110"/>
-      <c r="E60" s="110"/>
+      <c r="B60" s="95"/>
+      <c r="C60" s="95"/>
+      <c r="D60" s="95"/>
+      <c r="E60" s="95"/>
       <c r="F60" s="61"/>
       <c r="G60" s="61"/>
       <c r="H60" s="61"/>
@@ -15306,67 +15310,67 @@
       <c r="Y60" s="22"/>
       <c r="Z60" s="22"/>
     </row>
-    <row r="61" spans="1:26" s="22" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" s="22" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="34"/>
       <c r="C61" s="34"/>
       <c r="D61" s="34"/>
       <c r="J61" s="30"/>
     </row>
-    <row r="62" spans="1:26" s="22" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" s="22" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="38"/>
       <c r="C62" s="34"/>
       <c r="D62" s="34"/>
       <c r="J62" s="30"/>
     </row>
-    <row r="63" spans="1:26" s="22" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" s="22" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="34"/>
       <c r="C63" s="34"/>
       <c r="D63" s="34"/>
       <c r="J63" s="30"/>
     </row>
-    <row r="64" spans="1:26" s="22" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" s="22" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="34"/>
       <c r="C64" s="34"/>
       <c r="D64" s="34"/>
       <c r="J64" s="30"/>
     </row>
-    <row r="65" spans="1:34" s="22" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:34" s="22" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="34"/>
       <c r="C65" s="34"/>
       <c r="D65" s="34"/>
       <c r="J65" s="30"/>
     </row>
-    <row r="66" spans="1:34" s="22" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:34" s="22" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="34"/>
       <c r="C66" s="34"/>
       <c r="D66" s="34"/>
       <c r="J66" s="30"/>
     </row>
-    <row r="67" spans="1:34" s="22" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:34" s="22" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="34"/>
       <c r="C67" s="34"/>
       <c r="D67" s="34"/>
       <c r="J67" s="30"/>
     </row>
-    <row r="68" spans="1:34" s="22" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:34" s="22" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="34"/>
       <c r="C68" s="34"/>
       <c r="D68" s="34"/>
       <c r="J68" s="30"/>
     </row>
-    <row r="69" spans="1:34" s="22" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:34" s="22" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="34"/>
       <c r="C69" s="34"/>
       <c r="D69" s="34"/>
       <c r="J69" s="30"/>
     </row>
-    <row r="70" spans="1:34" s="22" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:34" s="22" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="34"/>
       <c r="C70" s="34"/>
       <c r="D70" s="34"/>
       <c r="J70" s="30"/>
     </row>
-    <row r="71" spans="1:34" s="22" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:34" s="22" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="30"/>
       <c r="B71" s="30"/>
       <c r="C71" s="30"/>
@@ -15378,15 +15382,15 @@
       <c r="I71" s="30"/>
       <c r="J71" s="30"/>
     </row>
-    <row r="72" spans="1:34" s="41" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="110" t="str">
+    <row r="72" spans="1:34" s="41" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="95" t="str">
         <f>" Hình 2: Biểu đồ xu hướng tiểu phân ≥ 5 µm "&amp;$C$6&amp;" ("&amp;$E$6&amp;") trong 6 tháng"</f>
         <v xml:space="preserve"> Hình 2: Biểu đồ xu hướng tiểu phân ≥ 5 µm Buồng xếp trang phục (NG-BXTP-01) trong 6 tháng</v>
       </c>
-      <c r="B72" s="110"/>
-      <c r="C72" s="110"/>
-      <c r="D72" s="110"/>
-      <c r="E72" s="110"/>
+      <c r="B72" s="95"/>
+      <c r="C72" s="95"/>
+      <c r="D72" s="95"/>
+      <c r="E72" s="95"/>
       <c r="F72" s="61"/>
       <c r="G72" s="61"/>
       <c r="H72" s="61"/>
@@ -15409,12 +15413,12 @@
       <c r="Y72" s="22"/>
       <c r="Z72" s="22"/>
     </row>
-    <row r="73" spans="1:34" s="42" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="111" t="s">
+    <row r="73" spans="1:34" s="42" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="B73" s="111"/>
-      <c r="C73" s="111"/>
+      <c r="B73" s="96"/>
+      <c r="C73" s="96"/>
       <c r="D73" s="60"/>
       <c r="E73" s="29"/>
       <c r="F73" s="60"/>
@@ -15439,15 +15443,15 @@
       <c r="Y73" s="22"/>
       <c r="Z73" s="22"/>
     </row>
-    <row r="74" spans="1:34" s="44" customFormat="1" ht="61.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="111" t="str">
+    <row r="74" spans="1:34" s="44" customFormat="1" ht="61.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="96" t="str">
         <f>""&amp;$C$6&amp;" ("&amp;$E$6&amp;") - "&amp;$C$5&amp;" - "&amp;$C$4&amp;": tiểu phân không khí ở trạng thái "&amp;$C$8&amp;" từ "&amp;$E$5&amp;" ở mỗi thời điểm lấy mẫu không có giá trị nào vượt giới hạn cảnh báo, xu hướng ổn định."</f>
         <v>Buồng xếp trang phục (NG-BXTP-01) - Phòng giặt - Phân xưởng thuốc vô trùng Nonbetalactam: tiểu phân không khí ở trạng thái Tĩnh từ 02 - 07.17 ở mỗi thời điểm lấy mẫu không có giá trị nào vượt giới hạn cảnh báo, xu hướng ổn định.</v>
       </c>
-      <c r="B74" s="111"/>
-      <c r="C74" s="111"/>
-      <c r="D74" s="111"/>
-      <c r="E74" s="111"/>
+      <c r="B74" s="96"/>
+      <c r="C74" s="96"/>
+      <c r="D74" s="96"/>
+      <c r="E74" s="96"/>
       <c r="F74" s="62"/>
       <c r="G74" s="62"/>
       <c r="H74" s="62"/>
@@ -15478,15 +15482,15 @@
       <c r="AG74" s="41"/>
       <c r="AH74" s="41"/>
     </row>
-    <row r="75" spans="1:34" s="42" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="111" t="s">
+    <row r="75" spans="1:34" s="42" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="C75" s="111"/>
-      <c r="D75" s="109" t="s">
+      <c r="C75" s="96"/>
+      <c r="D75" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="109"/>
+      <c r="E75" s="94"/>
       <c r="F75" s="60"/>
       <c r="G75" s="60"/>
       <c r="H75" s="60"/>
@@ -15509,11 +15513,11 @@
       <c r="Y75" s="22"/>
       <c r="Z75" s="22"/>
     </row>
-    <row r="76" spans="1:34" s="42" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="109"/>
-      <c r="C76" s="109"/>
-      <c r="D76" s="109"/>
-      <c r="E76" s="109"/>
+    <row r="76" spans="1:34" s="42" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="94"/>
+      <c r="C76" s="94"/>
+      <c r="D76" s="94"/>
+      <c r="E76" s="94"/>
       <c r="F76" s="60"/>
       <c r="G76" s="60"/>
       <c r="H76" s="60"/>
@@ -15536,7 +15540,7 @@
       <c r="Y76" s="22"/>
       <c r="Z76" s="22"/>
     </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B77" s="6"/>
       <c r="C77" s="72"/>
       <c r="D77" s="72"/>
@@ -15552,7 +15556,7 @@
       <c r="O77" s="4"/>
       <c r="P77" s="4"/>
     </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B78" s="6"/>
       <c r="C78" s="72"/>
       <c r="D78" s="72"/>
@@ -15568,7 +15572,7 @@
       <c r="O78" s="4"/>
       <c r="P78" s="4"/>
     </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:34" x14ac:dyDescent="0.2">
       <c r="K79" s="4"/>
       <c r="L79" s="4"/>
       <c r="M79" s="4"/>
@@ -15576,7 +15580,7 @@
       <c r="O79" s="4"/>
       <c r="P79" s="4"/>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:34" x14ac:dyDescent="0.2">
       <c r="K80" s="4"/>
       <c r="L80" s="4"/>
       <c r="M80" s="4"/>
@@ -15584,7 +15588,7 @@
       <c r="O80" s="4"/>
       <c r="P80" s="4"/>
     </row>
-    <row r="81" spans="11:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K81" s="4"/>
       <c r="L81" s="4"/>
       <c r="M81" s="4"/>
@@ -15592,7 +15596,7 @@
       <c r="O81" s="4"/>
       <c r="P81" s="4"/>
     </row>
-    <row r="82" spans="11:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K82" s="4"/>
       <c r="L82" s="4"/>
       <c r="M82" s="4"/>
@@ -15600,14 +15604,14 @@
       <c r="O82" s="4"/>
       <c r="P82" s="4"/>
     </row>
-    <row r="83" spans="11:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="11:16" x14ac:dyDescent="0.2">
       <c r="L83" s="4"/>
       <c r="M83" s="4"/>
       <c r="N83" s="4"/>
       <c r="O83" s="4"/>
       <c r="P83" s="4"/>
     </row>
-    <row r="84" spans="11:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="11:16" x14ac:dyDescent="0.2">
       <c r="L84" s="4"/>
       <c r="M84" s="4"/>
       <c r="N84" s="4"/>
@@ -15617,14 +15621,12 @@
   </sheetData>
   <sheetProtection formatCells="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="29">
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="A60:E60"/>
-    <mergeCell ref="A72:E72"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A74:E74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A5:B5"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="P14:Q14"/>
     <mergeCell ref="A7:B7"/>
@@ -15640,12 +15642,14 @@
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="K14:L14"/>
     <mergeCell ref="M14:N14"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="A60:E60"/>
+    <mergeCell ref="A72:E72"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A74:E74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="D75:E75"/>
   </mergeCells>
   <conditionalFormatting sqref="B35:B38">
     <cfRule type="timePeriod" dxfId="6" priority="10" timePeriod="today">
